--- a/AskResikel/data/chatbot_dataset_excel.xlsx
+++ b/AskResikel/data/chatbot_dataset_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1. Anggoro Doc's\INFINITE LEARNING\Dataset Chatbot AskResikel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F4B34E-5BFD-46E7-9B20-7E09121871DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BA8850-389A-4EA6-9E73-057505F38B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{33EA8895-2644-4ACF-8EEE-0BE2957D55A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33EA8895-2644-4ACF-8EEE-0BE2957D55A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>greeting</t>
   </si>
@@ -181,15 +181,69 @@
   </si>
   <si>
     <t>"Mektronika adalah ilmu yang menggabungkan teknik mesin, teknik elektronika, teknik informatika, dan teknik pengaturan untuk merancang, membuat, mengoperasikan, dan memelihara sistem", "Mekatronika adalah suatu ilmu yang mengkombinasikan secara sinergis rekayasa mekanika, elektronika, dan kontrol."</t>
+  </si>
+  <si>
+    <t>decomposition_organik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Berapa lama sampah organik terurai?","Sampah organik butuh waktu berapa lama buat hancur?","Lama nggak sih sampah organik terurai?","Kalau sampah organik dibiarkan aja, gimana jadinya?","Sampah organik kalau dibuang gitu aja aman nggak?"</t>
+  </si>
+  <si>
+    <t>"Sampah organik biasanya terurai dalam waktu 1-6 bulan, tergantung jenis dan kondisinya.", "Kalau sampah organik dibiarkan, bisa terurai alami dalam beberapa bulan dan jadi tanah.","Sampah organik gampang hancur, rata-rata butuh waktu sekitar 1-3 bulan."</t>
+  </si>
+  <si>
+    <t>benefits_organik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Kenapa sampah organik penting?","Apa sih manfaatnya daur ulang sampah organik?","Kalau sampah organik nggak diolah gimana?","Penting nggak sih ngolah sampah organik?","Manfaat kompos dari sampah organik apa ya?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Daur ulang sampah organik bikin lingkungan bersih, kurangi limbah, dan hasilkan pupuk alami buat tanaman.","Kalau diolah, sampah organik bisa bantu kesuburan tanah dan mengurangi polusi sampah","Manfaat utamanya, bisa dijadikan pupuk untuk tanaman dan mengurangi beban sampah di TPA"</t>
+  </si>
+  <si>
+    <t>recycling_organik</t>
+  </si>
+  <si>
+    <t>"Gimana cara ngolah sampah organik?", "Kalau sampah organik diapain ya?", "Ada cara daur ulang sampah organik nggak?", "Sampah organik bisa dimanfaatin jadi apa?", "Cara bikin kompos dari sampah organik gimana sih?"</t>
+  </si>
+  <si>
+    <t>"Sampah organik bisa dijadikan kompos, cukup masukkan ke tempat kompos dan biarkan membusuk jadi pupuk alami.",
+        "Cara paling mudah, kumpulkan sampah organik di lubang tanah atau alat pengomposan. Tunggu sampai jadi kompos.",
+        "Sampah organik bisa diolah jadi pupuk cair atau kompos. Cukup pisahkan dari sampah lain dan biarkan terurai."</t>
+  </si>
+  <si>
+    <t>example_organik</t>
+  </si>
+  <si>
+    <t>"Contoh-contoh sampah organik apa aja sih?", "Sampah organik itu kayak apa aja?", "Kasih tahu dong contoh sampah organik", "Apa aja yang termasuk sampah organik?", "Sampah organik itu misalnya gimana?"</t>
+  </si>
+  <si>
+    <t>"Contohnya kayak kulit buah, sisa sayuran, daun-daun kering, atau ampas kopi.", "Yang termasuk sampah organik misalnya sisa makanan, kulit pisang, atau daun kering.", "Sampah organik itu ya kayak sisa makanan, daun gugur, atau limbah dapur kayak ampas teh."</t>
+  </si>
+  <si>
+    <t>fun_fact_organik</t>
+  </si>
+  <si>
+    <t>"Ada fakta unik soal sampah organik?", "Coba kasih tahu fun fact tentang sampah organik!", "Fakta menarik soal sampah organik ada nggak?", "Apa yang menarik dari sampah organik?", "Sampah organik punya fakta unik apa?"</t>
+  </si>
+  <si>
+    <t>"Tahukah kamu? Kompos dari sampah organik bisa mengurangi emisi gas rumah kaca jika diolah dengan benar.", "Sampah organik adalah salah satu jenis limbah yang menyumbang sekitar 50% sampah rumah tangga di Indonesia!", "Fakta menarik: Satu ember kompos dari sampah organik bisa menyuburkan kebun kecil selama berbulan-bulan!"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -231,41 +285,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -285,9 +345,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +385,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -431,7 +491,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,452 +641,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C24DF9-00D0-4F33-8297-043E8454629F}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="127.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="139.140625" customWidth="1"/>
+    <col min="3" max="3" width="167.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D59" s="8"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
